--- a/homework_2/HMWK3_Data.xlsx
+++ b/homework_2/HMWK3_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gage/Documents/homework/2022 Fall/EIND 558/code/homework_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912BD41F-696C-C94D-A4A7-FDCAB4B33683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D7E3CC-7037-0D4A-B786-C5F01AF0553B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15500" xr2:uid="{927AE543-F29B-0243-A248-785602BED7E2}"/>
+    <workbookView xWindow="17240" yWindow="12100" windowWidth="28800" windowHeight="15500" activeTab="4" xr2:uid="{927AE543-F29B-0243-A248-785602BED7E2}"/>
   </bookViews>
   <sheets>
     <sheet name="B.4" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="105">
   <si>
     <t>Year</t>
   </si>
@@ -50,301 +50,148 @@
     <t>1959</t>
   </si>
   <si>
-    <t>316.00</t>
-  </si>
-  <si>
     <t>1960</t>
-  </si>
-  <si>
-    <t>316.91</t>
   </si>
   <si>
     <t>1961</t>
   </si>
   <si>
-    <t>317.63</t>
-  </si>
-  <si>
     <t>1962</t>
-  </si>
-  <si>
-    <t>318.46</t>
   </si>
   <si>
     <t>1963</t>
   </si>
   <si>
-    <t>319.02</t>
-  </si>
-  <si>
     <t>1964</t>
-  </si>
-  <si>
-    <t>319.52</t>
   </si>
   <si>
     <t>1965</t>
   </si>
   <si>
-    <t>320.09</t>
-  </si>
-  <si>
     <t>1966</t>
-  </si>
-  <si>
-    <t>321.34</t>
   </si>
   <si>
     <t>1967</t>
   </si>
   <si>
-    <t>322.13</t>
-  </si>
-  <si>
     <t>1968</t>
-  </si>
-  <si>
-    <t>323.11</t>
   </si>
   <si>
     <t>1969</t>
   </si>
   <si>
-    <t>324.60</t>
-  </si>
-  <si>
     <t>1970</t>
-  </si>
-  <si>
-    <t>325.65</t>
   </si>
   <si>
     <t>1971</t>
   </si>
   <si>
-    <t>326.32</t>
-  </si>
-  <si>
     <t>1972</t>
-  </si>
-  <si>
-    <t>327.52</t>
   </si>
   <si>
     <t>1973</t>
   </si>
   <si>
-    <t>329.61</t>
-  </si>
-  <si>
     <t>1974</t>
-  </si>
-  <si>
-    <t>330.29</t>
   </si>
   <si>
     <t>1975</t>
   </si>
   <si>
-    <t>331.16</t>
-  </si>
-  <si>
     <t>1976</t>
-  </si>
-  <si>
-    <t>332.18</t>
   </si>
   <si>
     <t>1977</t>
   </si>
   <si>
-    <t>333.88</t>
-  </si>
-  <si>
     <t>1978</t>
-  </si>
-  <si>
-    <t>335.52</t>
   </si>
   <si>
     <t>1979</t>
   </si>
   <si>
-    <t>336.89</t>
-  </si>
-  <si>
     <t>1980</t>
-  </si>
-  <si>
-    <t>338.67</t>
   </si>
   <si>
     <t>1981</t>
   </si>
   <si>
-    <t>339.95</t>
-  </si>
-  <si>
     <t>1982</t>
-  </si>
-  <si>
-    <t>341.09</t>
   </si>
   <si>
     <t>1983</t>
   </si>
   <si>
-    <t>342.75</t>
-  </si>
-  <si>
     <t>1984</t>
-  </si>
-  <si>
-    <t>344.44</t>
   </si>
   <si>
     <t>1985</t>
   </si>
   <si>
-    <t>345.86</t>
-  </si>
-  <si>
     <t>1986</t>
-  </si>
-  <si>
-    <t>347.14</t>
   </si>
   <si>
     <t>1987</t>
   </si>
   <si>
-    <t>348.99</t>
-  </si>
-  <si>
     <t>1988</t>
-  </si>
-  <si>
-    <t>351.44</t>
   </si>
   <si>
     <t>1989</t>
   </si>
   <si>
-    <t>352.94</t>
-  </si>
-  <si>
     <t>1990</t>
-  </si>
-  <si>
-    <t>354.19</t>
   </si>
   <si>
     <t>1991</t>
   </si>
   <si>
-    <t>355.62</t>
-  </si>
-  <si>
     <t>1992</t>
-  </si>
-  <si>
-    <t>356.36</t>
   </si>
   <si>
     <t>1993</t>
   </si>
   <si>
-    <t>357.10</t>
-  </si>
-  <si>
     <t>1994</t>
-  </si>
-  <si>
-    <t>358.86</t>
   </si>
   <si>
     <t>1995</t>
   </si>
   <si>
-    <t>360.90</t>
-  </si>
-  <si>
     <t>1996</t>
-  </si>
-  <si>
-    <t>362.58</t>
   </si>
   <si>
     <t>1997</t>
   </si>
   <si>
-    <t>363.84</t>
-  </si>
-  <si>
     <t>1998</t>
-  </si>
-  <si>
-    <t>366.58</t>
   </si>
   <si>
     <t>1999</t>
   </si>
   <si>
-    <t>368.30</t>
-  </si>
-  <si>
     <t>2000</t>
-  </si>
-  <si>
-    <t>369.47</t>
   </si>
   <si>
     <t>2001</t>
   </si>
   <si>
-    <t>371.03</t>
-  </si>
-  <si>
     <t>2002</t>
-  </si>
-  <si>
-    <t>373.07</t>
   </si>
   <si>
     <t>2003</t>
   </si>
   <si>
-    <t>375.61</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>−4.26</t>
-  </si>
-  <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>−3.12</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>−1.87</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
-    <t>0.98</t>
-  </si>
-  <si>
     <t>5</t>
-  </si>
-  <si>
-    <t>−5.17</t>
   </si>
   <si>
     <t>6</t>
@@ -360,9 +207,6 @@
   </si>
   <si>
     <t>8</t>
-  </si>
-  <si>
-    <t>−2.83</t>
   </si>
   <si>
     <t>9</t>
@@ -386,13 +230,7 @@
     <t>12</t>
   </si>
   <si>
-    <t>−5.08</t>
-  </si>
-  <si>
     <t>13</t>
-  </si>
-  <si>
-    <t>−1.35</t>
   </si>
   <si>
     <t>14</t>
@@ -404,31 +242,16 @@
     <t>15</t>
   </si>
   <si>
-    <t>−0.19</t>
-  </si>
-  <si>
     <t>16</t>
-  </si>
-  <si>
-    <t>−7.48</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t>−3.61</t>
-  </si>
-  <si>
     <t>18</t>
   </si>
   <si>
-    <t>−4.21</t>
-  </si>
-  <si>
     <t>19</t>
-  </si>
-  <si>
-    <t>−6.49</t>
   </si>
   <si>
     <t>20</t>
@@ -440,19 +263,10 @@
     <t>21</t>
   </si>
   <si>
-    <t>−6.24</t>
-  </si>
-  <si>
     <t>22</t>
   </si>
   <si>
-    <t>−0.25</t>
-  </si>
-  <si>
     <t>23</t>
-  </si>
-  <si>
-    <t>−3.64</t>
   </si>
   <si>
     <t>24</t>
@@ -464,19 +278,10 @@
     <t>25</t>
   </si>
   <si>
-    <t>−2.01</t>
-  </si>
-  <si>
     <t>26</t>
   </si>
   <si>
-    <t>−4.24</t>
-  </si>
-  <si>
     <t>27</t>
-  </si>
-  <si>
-    <t>−4.61</t>
   </si>
   <si>
     <t>28</t>
@@ -488,73 +293,37 @@
     <t>29</t>
   </si>
   <si>
-    <t>−8.66</t>
-  </si>
-  <si>
     <t>30</t>
-  </si>
-  <si>
-    <t>−1.32</t>
   </si>
   <si>
     <t>31</t>
   </si>
   <si>
-    <t>−6.42</t>
-  </si>
-  <si>
     <t>32</t>
-  </si>
-  <si>
-    <t>−8.94</t>
   </si>
   <si>
     <t>33</t>
   </si>
   <si>
-    <t>−1.76</t>
-  </si>
-  <si>
     <t>34</t>
-  </si>
-  <si>
-    <t>−0.57</t>
   </si>
   <si>
     <t>35</t>
   </si>
   <si>
-    <t>−10.32</t>
-  </si>
-  <si>
     <t>36</t>
-  </si>
-  <si>
-    <t>−5.64</t>
   </si>
   <si>
     <t>37</t>
   </si>
   <si>
-    <t>−1.45</t>
-  </si>
-  <si>
     <t>38</t>
-  </si>
-  <si>
-    <t>−5.67</t>
   </si>
   <si>
     <t>39</t>
   </si>
   <si>
-    <t>−4.45</t>
-  </si>
-  <si>
     <t>40</t>
-  </si>
-  <si>
-    <t>−10.23</t>
   </si>
   <si>
     <t>Date</t>
@@ -576,6 +345,15 @@
   </si>
   <si>
     <t>Volume</t>
+  </si>
+  <si>
+    <t>co2</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>error</t>
   </si>
 </sst>
 </file>
@@ -635,13 +413,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -958,7 +741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F8E42B-27A7-F84E-9761-EECC83AF7BD8}">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -2068,25 +1851,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>172</v>
+        <v>95</v>
       </c>
       <c r="B1" t="s">
-        <v>173</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s">
-        <v>174</v>
+        <v>97</v>
       </c>
       <c r="D1" t="s">
-        <v>175</v>
+        <v>98</v>
       </c>
       <c r="E1" t="s">
-        <v>176</v>
+        <v>99</v>
       </c>
       <c r="F1" t="s">
-        <v>177</v>
+        <v>100</v>
       </c>
       <c r="G1" t="s">
-        <v>178</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -11066,372 +10849,380 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCFEA37-36FA-1B49-8BF2-4A72AEB8507F}">
-  <dimension ref="A3:B47"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>316</v>
+      </c>
+    </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
         <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>316.91000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
+      <c r="B4" s="4">
+        <v>317.63</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="B5" s="6">
+        <v>318.45999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="B6" s="6">
+        <v>319.02</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="B7" s="6">
+        <v>319.52</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="B8" s="6">
+        <v>320.08999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="B9" s="6">
+        <v>321.33999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="B10" s="6">
+        <v>322.13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="B11" s="6">
+        <v>323.11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="B12" s="6">
+        <v>324.60000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="B13" s="6">
+        <v>325.64999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>25</v>
+        <v>14</v>
+      </c>
+      <c r="B14" s="6">
+        <v>326.32</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>27</v>
+        <v>15</v>
+      </c>
+      <c r="B15" s="6">
+        <v>327.52</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>29</v>
+        <v>16</v>
+      </c>
+      <c r="B16" s="6">
+        <v>329.61</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
+      </c>
+      <c r="B17" s="6">
+        <v>330.29</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>33</v>
+        <v>18</v>
+      </c>
+      <c r="B18" s="6">
+        <v>331.16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>35</v>
+        <v>19</v>
+      </c>
+      <c r="B19" s="6">
+        <v>332.18</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
+      </c>
+      <c r="B20" s="6">
+        <v>333.88</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>39</v>
+        <v>21</v>
+      </c>
+      <c r="B21" s="6">
+        <v>335.52</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>41</v>
+        <v>22</v>
+      </c>
+      <c r="B22" s="6">
+        <v>336.89</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>43</v>
+        <v>23</v>
+      </c>
+      <c r="B23" s="6">
+        <v>338.67</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>45</v>
+        <v>24</v>
+      </c>
+      <c r="B24" s="6">
+        <v>339.95</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>47</v>
+        <v>25</v>
+      </c>
+      <c r="B25" s="6">
+        <v>341.09</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>49</v>
+        <v>26</v>
+      </c>
+      <c r="B26" s="6">
+        <v>342.75</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>51</v>
+        <v>27</v>
+      </c>
+      <c r="B27" s="6">
+        <v>344.44</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>53</v>
+        <v>28</v>
+      </c>
+      <c r="B28" s="6">
+        <v>345.86</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>55</v>
+        <v>29</v>
+      </c>
+      <c r="B29" s="6">
+        <v>347.14</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>57</v>
+        <v>30</v>
+      </c>
+      <c r="B30" s="6">
+        <v>348.99</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>59</v>
+        <v>31</v>
+      </c>
+      <c r="B31" s="6">
+        <v>351.44</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>61</v>
+        <v>32</v>
+      </c>
+      <c r="B32" s="6">
+        <v>352.94</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>63</v>
+        <v>33</v>
+      </c>
+      <c r="B33" s="6">
+        <v>354.19</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>65</v>
+        <v>34</v>
+      </c>
+      <c r="B34" s="6">
+        <v>355.62</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>67</v>
+        <v>35</v>
+      </c>
+      <c r="B35" s="6">
+        <v>356.36</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>69</v>
+        <v>36</v>
+      </c>
+      <c r="B36" s="6">
+        <v>357.1</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>71</v>
+        <v>37</v>
+      </c>
+      <c r="B37" s="6">
+        <v>358.86</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>73</v>
+        <v>38</v>
+      </c>
+      <c r="B38" s="6">
+        <v>360.9</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>75</v>
+        <v>39</v>
+      </c>
+      <c r="B39" s="6">
+        <v>362.58</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>77</v>
+        <v>40</v>
+      </c>
+      <c r="B40" s="6">
+        <v>363.84</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>79</v>
+        <v>41</v>
+      </c>
+      <c r="B41" s="6">
+        <v>366.58</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>81</v>
+        <v>42</v>
+      </c>
+      <c r="B42" s="6">
+        <v>368.3</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>83</v>
+        <v>43</v>
+      </c>
+      <c r="B43" s="6">
+        <v>369.47</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>85</v>
+        <v>44</v>
+      </c>
+      <c r="B44" s="6">
+        <v>371.03</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>87</v>
+        <v>45</v>
+      </c>
+      <c r="B45" s="6">
+        <v>373.07</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>91</v>
+        <v>46</v>
+      </c>
+      <c r="B46" s="6">
+        <v>375.61</v>
       </c>
     </row>
   </sheetData>
@@ -11441,332 +11232,340 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{529742CA-AE56-5246-B069-82C1B910131F}">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>93</v>
+      <c r="A1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>95</v>
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>-4.26</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>97</v>
+        <v>47</v>
+      </c>
+      <c r="B3" s="4">
+        <v>-3.12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>99</v>
+        <v>48</v>
+      </c>
+      <c r="B4" s="4">
+        <v>-1.87</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>101</v>
+        <v>49</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.98</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>103</v>
+        <v>50</v>
+      </c>
+      <c r="B6" s="4">
+        <v>-5.17</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>109</v>
+        <v>55</v>
+      </c>
+      <c r="B9" s="4">
+        <v>-2.83</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>113</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>117</v>
+        <v>62</v>
+      </c>
+      <c r="B13" s="4">
+        <v>-5.08</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>119</v>
+        <v>63</v>
+      </c>
+      <c r="B14" s="4">
+        <v>-1.35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>123</v>
+        <v>66</v>
+      </c>
+      <c r="B16" s="4">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>125</v>
+        <v>67</v>
+      </c>
+      <c r="B17" s="4">
+        <v>-7.48</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>127</v>
+        <v>68</v>
+      </c>
+      <c r="B18" s="4">
+        <v>-3.61</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>129</v>
+        <v>69</v>
+      </c>
+      <c r="B19" s="4">
+        <v>-4.21</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>131</v>
+        <v>70</v>
+      </c>
+      <c r="B20" s="4">
+        <v>-6.49</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>135</v>
+        <v>73</v>
+      </c>
+      <c r="B22" s="4">
+        <v>-6.24</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>137</v>
+        <v>74</v>
+      </c>
+      <c r="B23" s="4">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>139</v>
+        <v>75</v>
+      </c>
+      <c r="B24" s="4">
+        <v>-3.64</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>141</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>143</v>
+        <v>78</v>
+      </c>
+      <c r="B26" s="4">
+        <v>-2.0099999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>145</v>
+        <v>79</v>
+      </c>
+      <c r="B27" s="4">
+        <v>-4.24</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>147</v>
+        <v>80</v>
+      </c>
+      <c r="B28" s="4">
+        <v>-4.6100000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>149</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>151</v>
+        <v>83</v>
+      </c>
+      <c r="B30" s="4">
+        <v>-8.66</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>153</v>
+        <v>84</v>
+      </c>
+      <c r="B31" s="4">
+        <v>-1.32</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>155</v>
+        <v>85</v>
+      </c>
+      <c r="B32" s="4">
+        <v>-6.42</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>157</v>
+        <v>86</v>
+      </c>
+      <c r="B33" s="4">
+        <v>-8.94</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>159</v>
+        <v>87</v>
+      </c>
+      <c r="B34" s="4">
+        <v>-1.76</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>161</v>
+        <v>88</v>
+      </c>
+      <c r="B35" s="4">
+        <v>-0.56999999999999995</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>163</v>
+        <v>89</v>
+      </c>
+      <c r="B36" s="4">
+        <v>-10.32</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>165</v>
+        <v>90</v>
+      </c>
+      <c r="B37" s="4">
+        <v>-5.64</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>167</v>
+        <v>91</v>
+      </c>
+      <c r="B38" s="4">
+        <v>-1.45</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>169</v>
+        <v>92</v>
+      </c>
+      <c r="B39" s="4">
+        <v>-5.67</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>171</v>
+        <v>93</v>
+      </c>
+      <c r="B40" s="4">
+        <v>-4.45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" s="4">
+        <v>-10.23</v>
       </c>
     </row>
   </sheetData>
